--- a/Excel Demo/AI-BATCH-01-PERSONAL DETAILS.xlsx
+++ b/Excel Demo/AI-BATCH-01-PERSONAL DETAILS.xlsx
@@ -1,51 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="600" yWindow="810" windowWidth="19575" windowHeight="7080"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="AI-BATCH-01" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="SQL-DEMO" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="SYSTEM INFO" sheetId="3" r:id="rId6"/>
+    <sheet name="AI-BATCH-01" sheetId="1" r:id="rId1"/>
+    <sheet name="SQL-DEMO" sheetId="2" r:id="rId2"/>
+    <sheet name="SYSTEM INFO" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="2" name="Z_666FFB2E_1B4F_4D70_AC16_41A68FE299C3_.wvu.FilterData">'SYSTEM INFO'!$A$1:$K$31</definedName>
-    <definedName hidden="1" localSheetId="2" name="Z_899D0F4F_443C_486C_9FF7_2E2C12758A06_.wvu.FilterData">'SYSTEM INFO'!$A$1:$K$31</definedName>
+    <definedName name="Z_666FFB2E_1B4F_4D70_AC16_41A68FE299C3_.wvu.FilterData" localSheetId="2" hidden="1">'SYSTEM INFO'!$A$1:$K$31</definedName>
+    <definedName name="Z_899D0F4F_443C_486C_9FF7_2E2C12758A06_.wvu.FilterData" localSheetId="2" hidden="1">'SYSTEM INFO'!$A$1:$K$31</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="124519"/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{899D0F4F-443C-486C-9FF7-2E2C12758A06}" name="other systems"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{666FFB2E-1B4F-4D70-AC16-41A68FE299C3}" name="Filter 1"/>
+    <customWorkbookView name="Filter 1" guid="{666FFB2E-1B4F-4D70-AC16-41A68FE299C3}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="other systems" guid="{899D0F4F-443C-486C-9FF7-2E2C12758A06}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="P17">
+    <comment ref="P6" authorId="0">
       <text>
-        <t xml:space="preserve">naveen28aio1@gmail.com
-	-Naveen</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>mfathimaai01@gmail.com
+	-Fathima</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="P6">
+    <comment ref="O9" authorId="0">
       <text>
-        <t xml:space="preserve">mfathimaai01@gmail.com
-	-Fathima</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="U30">
-      <text>
-        <t xml:space="preserve">Mercy S
-	-Vinu Andrews</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="O9">
-      <text>
-        <t xml:space="preserve">2012
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>2012
 	-Hajeera Sithika
 2012
 	-Hajeera Sithika
@@ -57,6 +64,35 @@
 _Re-opened_
 2012
 	-Hajeera Sithika</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>naveen28aio1@gmail.com
+	-Naveen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Mercy S
+	-Vinu Andrews</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -64,135 +100,303 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="F31">
+    <comment ref="F3" authorId="0">
       <text>
-        <t xml:space="preserve">4.00 GB
-	-Naveen</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>2 GB
+	-Sangari S</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D31">
+    <comment ref="E11" authorId="0">
       <text>
-        <t xml:space="preserve">working
-	-Naveen</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>windows 8.1 pro
+	-TAMIL V</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F24">
+    <comment ref="F18" authorId="0">
       <text>
-        <t xml:space="preserve">2 Gb
-	-Abdulrahman</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>2gb
+	-Vinu Andrews</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E24">
+    <comment ref="H18" authorId="0">
       <text>
-        <t xml:space="preserve">windows 8.1 pro
-	-Abdulrahman</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>duel core
+	-Vinu Andrews</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F27">
+    <comment ref="I18" authorId="0">
       <text>
-        <t xml:space="preserve">2 GB RAM
-	-Yogarajan</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>working
+	-Vinu Andrews</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F25">
+    <comment ref="E19" authorId="0">
       <text>
-        <t xml:space="preserve">2GB
-	-Arun</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>windows 10
+	-Rooban</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E27">
+    <comment ref="F19" authorId="0">
       <text>
-        <t xml:space="preserve">windows 7 ultimate
-	-Yogarajan</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>8GB
+	-Rooban</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F30">
+    <comment ref="H19" authorId="0">
       <text>
-        <t xml:space="preserve">2 GB
-	-Raghul S</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>i5
+	-Rooban</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="I18">
+    <comment ref="I19" authorId="0">
       <text>
-        <t xml:space="preserve">working
-	-Vinu Andrews</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>working
+	-Rooban</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="H18">
+    <comment ref="J19" authorId="0">
       <text>
-        <t xml:space="preserve">duel core
-	-Vinu Andrews</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>working
+	-Rooban</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E28">
+    <comment ref="E24" authorId="0">
       <text>
-        <t xml:space="preserve">Windows 8.1 Pro
-	-Saravanan Saravanan</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>windows 8.1 pro
+	-Abdulrahman</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E25">
+    <comment ref="F24" authorId="0">
       <text>
-        <t xml:space="preserve">windows 7 ultimate
-	-Arun</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>2 Gb
+	-Abdulrahman</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E30">
+    <comment ref="E25" authorId="0">
       <text>
-        <t xml:space="preserve">windows 7
-	-Raghul S</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>windows 7 ultimate
+	-Arun</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F18">
+    <comment ref="F25" authorId="0">
       <text>
-        <t xml:space="preserve">2gb
-	-Vinu Andrews</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>2GB
+	-Arun</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="J19">
+    <comment ref="E27" authorId="0">
       <text>
-        <t xml:space="preserve">working
-	-Rooban</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>windows 7 ultimate
+	-Yogarajan</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E11">
+    <comment ref="F27" authorId="0">
       <text>
-        <t xml:space="preserve">windows 8.1 pro
-	-TAMIL V</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>2 GB RAM
+	-Yogarajan</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="I19">
+    <comment ref="E28" authorId="0">
       <text>
-        <t xml:space="preserve">working
-	-Rooban</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Windows 8.1 Pro
+	-Saravanan Saravanan</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="H19">
+    <comment ref="E30" authorId="0">
       <text>
-        <t xml:space="preserve">i5
-	-Rooban</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>windows 7
+	-Raghul S</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F19">
+    <comment ref="F30" authorId="0">
       <text>
-        <t xml:space="preserve">8GB
-	-Rooban</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>2 GB
+	-Raghul S</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E19">
+    <comment ref="D31" authorId="0">
       <text>
-        <t xml:space="preserve">windows 10
-	-Rooban</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>working
+	-Naveen</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F3">
+    <comment ref="F31" authorId="0">
       <text>
-        <t xml:space="preserve">2 GB
-	-Sangari S</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>4.00 GB
+	-Naveen</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -1111,13 +1315,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">select * from info_tech left join info_tech_reg using info_tech.id=info_tech_reg.id right join info_tech__login using </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>info_tech_login.id</t>
     </r>
@@ -1338,70 +1543,82 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF444746"/>
       <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1409,7 +1626,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1425,7 +1642,13 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1439,8 +1662,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1450,6 +1675,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1458,158 +1684,125 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="21" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1799,41 +1992,44 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AI31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2.0" ySplit="2.0" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1" pane="topRight"/>
-      <selection activeCell="A3" sqref="A3" pane="bottomLeft"/>
-      <selection activeCell="C3" sqref="C3" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.63"/>
-    <col customWidth="1" min="2" max="2" width="17.63"/>
-    <col customWidth="1" min="4" max="4" width="17.75"/>
-    <col customWidth="1" min="5" max="6" width="15.5"/>
-    <col customWidth="1" min="7" max="7" width="17.75"/>
-    <col customWidth="1" min="9" max="9" width="22.0"/>
-    <col customWidth="1" min="10" max="10" width="20.38"/>
-    <col customWidth="1" min="12" max="12" width="24.0"/>
-    <col customWidth="1" min="14" max="14" width="18.38"/>
-    <col customWidth="1" min="16" max="17" width="29.0"/>
-    <col customWidth="1" min="18" max="18" width="41.75"/>
-    <col customWidth="1" min="19" max="19" width="9.75"/>
-    <col customWidth="1" min="20" max="20" width="15.88"/>
-    <col customWidth="1" min="21" max="21" width="15.13"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" customWidth="1"/>
+    <col min="16" max="17" width="29" customWidth="1"/>
+    <col min="18" max="18" width="41.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1903,31 +2099,31 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" ht="19.5" customHeight="1">
+    <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="8">
-        <v>36906.0</v>
+        <v>36906</v>
       </c>
       <c r="D2" s="9">
-        <v>6.69092087983E11</v>
+        <v>669092087983</v>
       </c>
       <c r="E2" s="10" t="str">
-        <f t="shared" ref="E2:E31" si="1">RIGHT(D2,8)</f>
+        <f t="shared" ref="E2:E31" si="0">RIGHT(D2,8)</f>
         <v>92087983</v>
       </c>
       <c r="F2" s="10">
-        <v>9.952630126E9</v>
+        <v>9952630126</v>
       </c>
       <c r="G2" s="11">
-        <v>6.369696359E9</v>
+        <v>6369696359</v>
       </c>
       <c r="H2" s="10">
-        <v>9.952630126E9</v>
+        <v>9952630126</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>21</v>
@@ -1948,7 +2144,7 @@
         <v>25</v>
       </c>
       <c r="O2" s="12">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12" t="s">
@@ -1967,31 +2163,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="12.75">
       <c r="A3" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="8">
-        <v>37444.0</v>
+        <v>37444</v>
       </c>
       <c r="D3" s="13">
-        <v>3.41246643302E11</v>
+        <v>341246643302</v>
       </c>
       <c r="E3" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>46643302</v>
       </c>
       <c r="F3" s="10">
-        <v>8.525880306E9</v>
+        <v>8525880306</v>
       </c>
       <c r="G3" s="10">
-        <v>6.382506148E9</v>
+        <v>6382506148</v>
       </c>
       <c r="H3" s="10">
-        <v>8.525880306E9</v>
+        <v>8525880306</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>32</v>
@@ -2012,7 +2208,7 @@
         <v>25</v>
       </c>
       <c r="O3" s="12">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12" t="s">
@@ -2029,31 +2225,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="12.75">
       <c r="A4" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="8">
-        <v>32153.0</v>
+        <v>32153</v>
       </c>
       <c r="D4" s="13">
-        <v>7.84654756225E11</v>
+        <v>784654756225</v>
       </c>
       <c r="E4" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>54756225</v>
       </c>
       <c r="F4" s="10">
-        <v>8.124823036E9</v>
+        <v>8124823036</v>
       </c>
       <c r="G4" s="10">
-        <v>8.610353074E9</v>
+        <v>8610353074</v>
       </c>
       <c r="H4" s="10">
-        <v>8.124823036E9</v>
+        <v>8124823036</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>38</v>
@@ -2062,7 +2258,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="12">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>39</v>
@@ -2074,7 +2270,7 @@
         <v>25</v>
       </c>
       <c r="O4" s="12">
-        <v>2005.0</v>
+        <v>2005</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12" t="s">
@@ -2093,31 +2289,31 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="12.75">
       <c r="A5" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="8">
-        <v>37542.0</v>
+        <v>37542</v>
       </c>
       <c r="D5" s="13">
-        <v>9.35775705642E11</v>
+        <v>935775705642</v>
       </c>
       <c r="E5" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>75705642</v>
       </c>
       <c r="F5" s="10">
-        <v>6.380185097E9</v>
+        <v>6380185097</v>
       </c>
       <c r="G5" s="10">
-        <v>9.659871377E9</v>
+        <v>9659871377</v>
       </c>
       <c r="H5" s="10">
-        <v>6.380185097E9</v>
+        <v>6380185097</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>45</v>
@@ -2138,7 +2334,7 @@
         <v>25</v>
       </c>
       <c r="O5" s="12">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="P5" s="12" t="s">
         <v>46</v>
@@ -2159,31 +2355,31 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="12.75">
       <c r="A6" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="8">
-        <v>37607.0</v>
+        <v>37607</v>
       </c>
       <c r="D6" s="13">
-        <v>6.22631324614E11</v>
+        <v>622631324614</v>
       </c>
       <c r="E6" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31324614</v>
       </c>
       <c r="F6" s="10">
-        <v>6.374041818E9</v>
+        <v>6374041818</v>
       </c>
       <c r="G6" s="10">
-        <v>9.791676433E9</v>
+        <v>9791676433</v>
       </c>
       <c r="H6" s="10">
-        <v>6.374041818E9</v>
+        <v>6374041818</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>53</v>
@@ -2204,7 +2400,7 @@
         <v>25</v>
       </c>
       <c r="O6" s="12">
-        <v>2024.0</v>
+        <v>2024</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12" t="s">
@@ -2223,31 +2419,31 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="12.75">
       <c r="A7" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="8">
-        <v>32734.0</v>
+        <v>32734</v>
       </c>
       <c r="D7" s="13">
-        <v>8.1839399005E11</v>
+        <v>818393990050</v>
       </c>
       <c r="E7" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>93990050</v>
       </c>
       <c r="F7" s="10">
-        <v>9.994286043E9</v>
+        <v>9994286043</v>
       </c>
       <c r="G7" s="10">
-        <v>7.708475065E9</v>
+        <v>7708475065</v>
       </c>
       <c r="H7" s="10">
-        <v>9.994286043E9</v>
+        <v>9994286043</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>61</v>
@@ -2268,7 +2464,7 @@
         <v>25</v>
       </c>
       <c r="O7" s="12">
-        <v>2010.0</v>
+        <v>2010</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12" t="s">
@@ -2287,31 +2483,31 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="12.75">
       <c r="A8" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="8">
-        <v>37740.0</v>
+        <v>37740</v>
       </c>
       <c r="D8" s="13">
-        <v>4.18718821662E11</v>
+        <v>418718821662</v>
       </c>
       <c r="E8" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18821662</v>
       </c>
       <c r="F8" s="10">
-        <v>7.094373123E9</v>
+        <v>7094373123</v>
       </c>
       <c r="G8" s="10">
-        <v>9.96545241E9</v>
+        <v>9965452410</v>
       </c>
       <c r="H8" s="10">
-        <v>7.094373123E9</v>
+        <v>7094373123</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>69</v>
@@ -2332,7 +2528,7 @@
         <v>25</v>
       </c>
       <c r="O8" s="12">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="P8" s="12" t="s">
         <v>71</v>
@@ -2353,31 +2549,31 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="12.75">
       <c r="A9" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="8">
-        <v>33766.0</v>
+        <v>33766</v>
       </c>
       <c r="D9" s="13">
-        <v>4.30341868981E11</v>
+        <v>430341868981</v>
       </c>
       <c r="E9" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41868981</v>
       </c>
       <c r="F9" s="10">
-        <v>8.056447098E9</v>
+        <v>8056447098</v>
       </c>
       <c r="G9" s="10">
-        <v>9.751471799E9</v>
+        <v>9751471799</v>
       </c>
       <c r="H9" s="10">
-        <v>8.056447098E9</v>
+        <v>8056447098</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>77</v>
@@ -2398,7 +2594,7 @@
         <v>25</v>
       </c>
       <c r="O9" s="12">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12" t="s">
@@ -2417,31 +2613,31 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="12.75">
       <c r="A10" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>83</v>
       </c>
       <c r="C10" s="8">
-        <v>37175.0</v>
+        <v>37175</v>
       </c>
       <c r="D10" s="11">
-        <v>3.0476542444E11</v>
+        <v>304765424440</v>
       </c>
       <c r="E10" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>65424440</v>
       </c>
       <c r="F10" s="10">
-        <v>9.363649175E9</v>
+        <v>9363649175</v>
       </c>
       <c r="G10" s="10">
-        <v>9.363649175E9</v>
+        <v>9363649175</v>
       </c>
       <c r="H10" s="10">
-        <v>9.363649175E9</v>
+        <v>9363649175</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>84</v>
@@ -2462,7 +2658,7 @@
         <v>25</v>
       </c>
       <c r="O10" s="12">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="P10" s="12"/>
       <c r="Q10" s="12" t="s">
@@ -2481,31 +2677,31 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="12.75">
       <c r="A11" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C11" s="8">
-        <v>35467.0</v>
+        <v>35467</v>
       </c>
       <c r="D11" s="13">
-        <v>4.32445616668E11</v>
+        <v>432445616668</v>
       </c>
       <c r="E11" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45616668</v>
       </c>
       <c r="F11" s="10">
-        <v>9.500628375E9</v>
+        <v>9500628375</v>
       </c>
       <c r="G11" s="10">
-        <v>6.385632493E9</v>
+        <v>6385632493</v>
       </c>
       <c r="H11" s="10">
-        <v>6.385632493E9</v>
+        <v>6385632493</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>93</v>
@@ -2526,7 +2722,7 @@
         <v>97</v>
       </c>
       <c r="O11" s="12">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="P11" s="12" t="s">
         <v>98</v>
@@ -2547,31 +2743,31 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="12.75">
       <c r="A12" s="6">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>103</v>
       </c>
       <c r="C12" s="8">
-        <v>37629.0</v>
+        <v>37629</v>
       </c>
       <c r="D12" s="13">
-        <v>6.93941180387E11</v>
+        <v>693941180387</v>
       </c>
       <c r="E12" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41180387</v>
       </c>
       <c r="F12" s="10">
-        <v>9.585607631E9</v>
+        <v>9585607631</v>
       </c>
       <c r="G12" s="10">
-        <v>9.843412199E9</v>
+        <v>9843412199</v>
       </c>
       <c r="H12" s="10">
-        <v>9.585607631E9</v>
+        <v>9585607631</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>104</v>
@@ -2592,7 +2788,7 @@
         <v>25</v>
       </c>
       <c r="O12" s="12">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="P12" s="12" t="s">
         <v>106</v>
@@ -2613,9 +2809,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="12.75">
       <c r="A13" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>111</v>
@@ -2624,20 +2820,20 @@
         <v>112</v>
       </c>
       <c r="D13" s="20">
-        <v>4.47595386464E11</v>
+        <v>447595386464</v>
       </c>
       <c r="E13" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95386464</v>
       </c>
       <c r="F13" s="12">
-        <v>9.600330846E9</v>
+        <v>9600330846</v>
       </c>
       <c r="G13" s="12">
-        <v>9.994057344E9</v>
+        <v>9994057344</v>
       </c>
       <c r="H13" s="12">
-        <v>9.600330846E9</v>
+        <v>9600330846</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>113</v>
@@ -2658,7 +2854,7 @@
         <v>25</v>
       </c>
       <c r="O13" s="12">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="P13" s="12" t="s">
         <v>115</v>
@@ -2679,9 +2875,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="12.75">
       <c r="A14" s="6">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>120</v>
@@ -2691,17 +2887,17 @@
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F14" s="12">
-        <v>7.339221973E9</v>
+        <v>7339221973</v>
       </c>
       <c r="G14" s="12">
-        <v>9.698821473E9</v>
+        <v>9698821473</v>
       </c>
       <c r="H14" s="12">
-        <v>7.339221973E9</v>
+        <v>7339221973</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>122</v>
@@ -2722,7 +2918,7 @@
         <v>25</v>
       </c>
       <c r="O14" s="12">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="P14" s="12" t="s">
         <v>124</v>
@@ -2743,31 +2939,31 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="12.75">
       <c r="A15" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>129</v>
       </c>
       <c r="C15" s="8">
-        <v>37831.0</v>
+        <v>37831</v>
       </c>
       <c r="D15" s="11">
-        <v>4.60205744637E11</v>
+        <v>460205744637</v>
       </c>
       <c r="E15" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>05744637</v>
       </c>
       <c r="F15" s="10">
-        <v>8.940898862E9</v>
+        <v>8940898862</v>
       </c>
       <c r="G15" s="10">
-        <v>7.904257743E9</v>
+        <v>7904257743</v>
       </c>
       <c r="H15" s="10">
-        <v>8.940898862E9</v>
+        <v>8940898862</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>130</v>
@@ -2788,7 +2984,7 @@
         <v>25</v>
       </c>
       <c r="O15" s="12">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="P15" s="12"/>
       <c r="Q15" s="12" t="s">
@@ -2807,31 +3003,31 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="12.75">
       <c r="A16" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>136</v>
       </c>
       <c r="C16" s="8">
-        <v>36948.0</v>
+        <v>36948</v>
       </c>
       <c r="D16" s="13">
-        <v>6.29731226643E11</v>
+        <v>629731226643</v>
       </c>
       <c r="E16" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31226643</v>
       </c>
       <c r="F16" s="10">
-        <v>7.904460924E9</v>
+        <v>7904460924</v>
       </c>
       <c r="G16" s="10">
-        <v>8.24855477E9</v>
+        <v>8248554770</v>
       </c>
       <c r="H16" s="10">
-        <v>7.904460924E9</v>
+        <v>7904460924</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>137</v>
@@ -2852,7 +3048,7 @@
         <v>25</v>
       </c>
       <c r="O16" s="12">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="P16" s="12"/>
       <c r="Q16" s="12" t="s">
@@ -2871,9 +3067,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:35" ht="12.75">
       <c r="A17" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>143</v>
@@ -2882,20 +3078,20 @@
         <v>144</v>
       </c>
       <c r="D17" s="20">
-        <v>2.82903912214E11</v>
+        <v>282903912214</v>
       </c>
       <c r="E17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>03912214</v>
       </c>
       <c r="F17" s="12">
-        <v>9.361015928E9</v>
+        <v>9361015928</v>
       </c>
       <c r="G17" s="12">
-        <v>8.122648085E9</v>
+        <v>8122648085</v>
       </c>
       <c r="H17" s="12">
-        <v>9.361015928E9</v>
+        <v>9361015928</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>145</v>
@@ -2916,7 +3112,7 @@
         <v>25</v>
       </c>
       <c r="O17" s="12">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="P17" s="12"/>
       <c r="Q17" s="12" t="s">
@@ -2935,9 +3131,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:35" ht="12.75">
       <c r="A18" s="6">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>151</v>
@@ -2946,20 +3142,20 @@
         <v>152</v>
       </c>
       <c r="D18" s="20">
-        <v>9.83315540255E11</v>
+        <v>983315540255</v>
       </c>
       <c r="E18" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15540255</v>
       </c>
       <c r="F18" s="12">
-        <v>9.361216766E9</v>
+        <v>9361216766</v>
       </c>
       <c r="G18" s="12">
-        <v>9.626922317E9</v>
+        <v>9626922317</v>
       </c>
       <c r="H18" s="12">
-        <v>9.361216766E9</v>
+        <v>9361216766</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>153</v>
@@ -2980,7 +3176,7 @@
         <v>25</v>
       </c>
       <c r="O18" s="12">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="P18" s="12" t="s">
         <v>155</v>
@@ -3001,9 +3197,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:35" ht="12.75">
       <c r="A19" s="6">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>160</v>
@@ -3012,20 +3208,20 @@
         <v>161</v>
       </c>
       <c r="D19" s="20">
-        <v>9.20343048388E11</v>
+        <v>920343048388</v>
       </c>
       <c r="E19" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43048388</v>
       </c>
       <c r="F19" s="12">
-        <v>9.626940557E9</v>
+        <v>9626940557</v>
       </c>
       <c r="G19" s="12">
-        <v>9.626940557E9</v>
+        <v>9626940557</v>
       </c>
       <c r="H19" s="12">
-        <v>8.508332712E9</v>
+        <v>8508332712</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>162</v>
@@ -3046,7 +3242,7 @@
         <v>25</v>
       </c>
       <c r="O19" s="12">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>165</v>
@@ -3067,31 +3263,31 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:35" ht="12.75">
       <c r="A20" s="6">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>170</v>
       </c>
       <c r="C20" s="8">
-        <v>35572.0</v>
+        <v>35572</v>
       </c>
       <c r="D20" s="11">
-        <v>7.62578126673E11</v>
+        <v>762578126673</v>
       </c>
       <c r="E20" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>78126673</v>
       </c>
       <c r="F20" s="10">
-        <v>6.369782863E9</v>
+        <v>6369782863</v>
       </c>
       <c r="G20" s="10">
-        <v>9.715451286E9</v>
+        <v>9715451286</v>
       </c>
       <c r="H20" s="10">
-        <v>6.369782863E9</v>
+        <v>6369782863</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>171</v>
@@ -3112,7 +3308,7 @@
         <v>25</v>
       </c>
       <c r="O20" s="12">
-        <v>2025.0</v>
+        <v>2025</v>
       </c>
       <c r="P20" s="12" t="s">
         <v>172</v>
@@ -3133,28 +3329,28 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:35" ht="12.75">
       <c r="A21" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>176</v>
       </c>
       <c r="C21" s="8">
-        <v>36684.0</v>
+        <v>36684</v>
       </c>
       <c r="D21" s="11">
-        <v>8.717368626E11</v>
+        <v>871736862600</v>
       </c>
       <c r="E21" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36862600</v>
       </c>
       <c r="F21" s="10">
-        <v>7.010107069E9</v>
+        <v>7010107069</v>
       </c>
       <c r="H21" s="10">
-        <v>8.680827179E9</v>
+        <v>8680827179</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>177</v>
@@ -3194,31 +3390,31 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:35" ht="12.75">
       <c r="A22" s="6">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>184</v>
       </c>
       <c r="C22" s="8">
-        <v>33930.0</v>
+        <v>33930</v>
       </c>
       <c r="D22" s="11">
-        <v>6.12231264958E11</v>
+        <v>612231264958</v>
       </c>
       <c r="E22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31264958</v>
       </c>
       <c r="F22" s="10">
-        <v>7.904255453E9</v>
+        <v>7904255453</v>
       </c>
       <c r="G22" s="10">
-        <v>9.48664596E9</v>
+        <v>9486645960</v>
       </c>
       <c r="H22" s="10">
-        <v>7.904255453E9</v>
+        <v>7904255453</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>185</v>
@@ -3239,7 +3435,7 @@
         <v>25</v>
       </c>
       <c r="O22" s="12">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P22" s="12" t="s">
         <v>186</v>
@@ -3260,31 +3456,31 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:35" ht="12.75">
       <c r="A23" s="6">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>191</v>
       </c>
       <c r="C23" s="8">
-        <v>35814.0</v>
+        <v>35814</v>
       </c>
       <c r="D23" s="13">
-        <v>3.60158896738E11</v>
+        <v>360158896738</v>
       </c>
       <c r="E23" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>58896738</v>
       </c>
       <c r="F23" s="10">
-        <v>9.787264394E9</v>
+        <v>9787264394</v>
       </c>
       <c r="G23" s="10">
-        <v>9.751721397E9</v>
+        <v>9751721397</v>
       </c>
       <c r="H23" s="10">
-        <v>9.787264394E9</v>
+        <v>9787264394</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>192</v>
@@ -3305,7 +3501,7 @@
         <v>25</v>
       </c>
       <c r="O23" s="12">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="P23" s="12" t="s">
         <v>193</v>
@@ -3326,31 +3522,31 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:35" ht="12.75">
       <c r="A24" s="6">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>199</v>
       </c>
       <c r="C24" s="8">
-        <v>37740.0</v>
+        <v>37740</v>
       </c>
       <c r="D24" s="13">
-        <v>8.42296226066E11</v>
+        <v>842296226066</v>
       </c>
       <c r="E24" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>96226066</v>
       </c>
       <c r="F24" s="10">
-        <v>8.940937523E9</v>
+        <v>8940937523</v>
       </c>
       <c r="G24" s="10">
-        <v>9.842021095E9</v>
+        <v>9842021095</v>
       </c>
       <c r="H24" s="10">
-        <v>8.940937522E9</v>
+        <v>8940937522</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>200</v>
@@ -3371,7 +3567,7 @@
         <v>25</v>
       </c>
       <c r="O24" s="12">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="P24" s="12" t="s">
         <v>202</v>
@@ -3392,9 +3588,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:35" ht="12.75">
       <c r="A25" s="6">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>207</v>
@@ -3403,20 +3599,20 @@
         <v>208</v>
       </c>
       <c r="D25" s="20">
-        <v>9.71123726105E11</v>
+        <v>971123726105</v>
       </c>
       <c r="E25" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23726105</v>
       </c>
       <c r="F25" s="12">
-        <v>8.248879007E9</v>
+        <v>8248879007</v>
       </c>
       <c r="G25" s="12">
-        <v>9.585031787E9</v>
+        <v>9585031787</v>
       </c>
       <c r="H25" s="12">
-        <v>8.248879007E9</v>
+        <v>8248879007</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>209</v>
@@ -3437,7 +3633,7 @@
         <v>25</v>
       </c>
       <c r="O25" s="12">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12" t="s">
@@ -3456,9 +3652,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:35" ht="12.75">
       <c r="A26" s="6">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>215</v>
@@ -3467,20 +3663,20 @@
         <v>216</v>
       </c>
       <c r="D26" s="20">
-        <v>3.8586891647E11</v>
+        <v>385868916470</v>
       </c>
       <c r="E26" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>68916470</v>
       </c>
       <c r="F26" s="12">
-        <v>8.838011266E9</v>
+        <v>8838011266</v>
       </c>
       <c r="G26" s="12">
-        <v>7.603972485E9</v>
+        <v>7603972485</v>
       </c>
       <c r="H26" s="12">
-        <v>8.838011266E9</v>
+        <v>8838011266</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>217</v>
@@ -3501,7 +3697,7 @@
         <v>25</v>
       </c>
       <c r="O26" s="12">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="P26" s="12" t="s">
         <v>219</v>
@@ -3522,31 +3718,31 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:35" ht="12.75">
       <c r="A27" s="6">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>224</v>
       </c>
       <c r="C27" s="24">
-        <v>37716.0</v>
+        <v>37716</v>
       </c>
       <c r="D27" s="12">
-        <v>5.46307861816E11</v>
+        <v>546307861816</v>
       </c>
       <c r="E27" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>07861816</v>
       </c>
       <c r="F27" s="12">
-        <v>9.047648856E9</v>
+        <v>9047648856</v>
       </c>
       <c r="G27" s="12">
-        <v>8.072885475E9</v>
+        <v>8072885475</v>
       </c>
       <c r="H27" s="12">
-        <v>9.047648856E9</v>
+        <v>9047648856</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>225</v>
@@ -3567,7 +3763,7 @@
         <v>25</v>
       </c>
       <c r="O27" s="12">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="P27" s="12" t="s">
         <v>227</v>
@@ -3588,9 +3784,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:35" ht="12.75">
       <c r="A28" s="6">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>232</v>
@@ -3599,20 +3795,20 @@
         <v>233</v>
       </c>
       <c r="D28" s="20">
-        <v>7.33557069525E11</v>
+        <v>733557069525</v>
       </c>
       <c r="E28" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>57069525</v>
       </c>
       <c r="F28" s="12">
-        <v>9.360728585E9</v>
+        <v>9360728585</v>
       </c>
       <c r="G28" s="12">
-        <v>9.500868943E9</v>
+        <v>9500868943</v>
       </c>
       <c r="H28" s="12">
-        <v>9.360728585E9</v>
+        <v>9360728585</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>234</v>
@@ -3633,7 +3829,7 @@
         <v>25</v>
       </c>
       <c r="O28" s="12">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="P28" s="12" t="s">
         <v>235</v>
@@ -3654,31 +3850,31 @@
         <v>239</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:35" ht="12.75">
       <c r="A29" s="6">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>240</v>
       </c>
       <c r="C29" s="24">
-        <v>37750.0</v>
+        <v>37750</v>
       </c>
       <c r="D29" s="20">
-        <v>2.77289901567E11</v>
+        <v>277289901567</v>
       </c>
       <c r="E29" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>89901567</v>
       </c>
       <c r="F29" s="12">
-        <v>7.904761471E9</v>
+        <v>7904761471</v>
       </c>
       <c r="G29" s="12">
-        <v>7.904761471E9</v>
+        <v>7904761471</v>
       </c>
       <c r="H29" s="12">
-        <v>7.904761471E9</v>
+        <v>7904761471</v>
       </c>
       <c r="I29" s="25" t="s">
         <v>241</v>
@@ -3699,7 +3895,7 @@
         <v>25</v>
       </c>
       <c r="O29" s="12">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="P29" s="16" t="s">
         <v>242</v>
@@ -3720,9 +3916,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:35" ht="12.75">
       <c r="A30" s="26">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>247</v>
@@ -3731,18 +3927,18 @@
         <v>248</v>
       </c>
       <c r="D30" s="28">
-        <v>5.43353698598E11</v>
+        <v>543353698598</v>
       </c>
       <c r="E30" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>53698598</v>
       </c>
       <c r="F30" s="28">
-        <v>8.428908488E9</v>
+        <v>8428908488</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="28">
-        <v>8.428908488E9</v>
+        <v>8428908488</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>249</v>
@@ -3763,7 +3959,7 @@
         <v>253</v>
       </c>
       <c r="O30" s="28">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="P30" s="28" t="s">
         <v>254</v>
@@ -3798,31 +3994,31 @@
       <c r="AH30" s="30"/>
       <c r="AI30" s="30"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:35" ht="12.75">
       <c r="A31" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>259</v>
       </c>
       <c r="C31" s="8">
-        <v>37240.0</v>
+        <v>37240</v>
       </c>
       <c r="D31" s="13">
-        <v>2.41602457541E11</v>
+        <v>241602457541</v>
       </c>
       <c r="E31" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>02457541</v>
       </c>
       <c r="F31" s="10">
-        <v>6.379275571E9</v>
+        <v>6379275571</v>
       </c>
       <c r="G31" s="10">
-        <v>8.056724735E9</v>
+        <v>8056724735</v>
       </c>
       <c r="H31" s="10">
-        <v>6.379275571E9</v>
+        <v>6379275571</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>260</v>
@@ -3843,7 +4039,7 @@
         <v>25</v>
       </c>
       <c r="O31" s="12">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="P31" s="12" t="s">
         <v>262</v>
@@ -3866,32 +4062,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="K6"/>
-    <hyperlink r:id="rId3" ref="K13"/>
-    <hyperlink r:id="rId4" ref="K19"/>
-    <hyperlink r:id="rId5" ref="K20"/>
+    <hyperlink ref="K6" r:id="rId1"/>
+    <hyperlink ref="K13" r:id="rId2"/>
+    <hyperlink ref="K19" r:id="rId3"/>
+    <hyperlink ref="K20" r:id="rId4"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="105.13"/>
+    <col min="2" max="2" width="105.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.0" customHeight="1">
+    <row r="1" spans="1:4" ht="39" customHeight="1">
       <c r="A1" s="31">
-        <v>0.5025347222222222</v>
+        <v>0.50253472222222217</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>267</v>
@@ -3903,7 +4100,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="12.75">
       <c r="A2" s="33" t="s">
         <v>270</v>
       </c>
@@ -3911,44 +4108,45 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" ht="39.0" customHeight="1">
+    <row r="3" spans="1:4" ht="39" customHeight="1">
       <c r="A3" s="33" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B1"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.63"/>
-    <col customWidth="1" min="2" max="2" width="15.25"/>
-    <col customWidth="1" min="3" max="3" width="10.0"/>
-    <col customWidth="1" min="4" max="5" width="28.5"/>
-    <col customWidth="1" min="7" max="8" width="22.0"/>
-    <col customWidth="1" min="9" max="9" width="15.75"/>
-    <col customWidth="1" min="10" max="10" width="20.5"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="5" width="28.42578125" customWidth="1"/>
+    <col min="7" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -3983,15 +4181,15 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="6">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C2" s="35">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>282</v>
@@ -4014,15 +4212,15 @@
       </c>
       <c r="K2" s="36"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="A3" s="6">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>191</v>
       </c>
       <c r="C3" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>286</v>
@@ -4045,15 +4243,15 @@
       </c>
       <c r="K3" s="36"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11">
       <c r="A4" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C4" s="35">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>287</v>
@@ -4076,15 +4274,15 @@
       </c>
       <c r="K4" s="36"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="A5" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="35">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>291</v>
@@ -4107,15 +4305,15 @@
       </c>
       <c r="K5" s="36"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11">
       <c r="A6" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>136</v>
       </c>
       <c r="C6" s="35">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>291</v>
@@ -4138,15 +4336,15 @@
       </c>
       <c r="K6" s="36"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="A7" s="6">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>207</v>
       </c>
       <c r="C7" s="35">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="35" t="s">
         <v>296</v>
@@ -4169,15 +4367,15 @@
       </c>
       <c r="K7" s="36"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="A8" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="35">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>287</v>
@@ -4200,15 +4398,15 @@
       </c>
       <c r="K8" s="36"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11">
       <c r="A9" s="6">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>170</v>
       </c>
       <c r="C9" s="35">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>291</v>
@@ -4231,15 +4429,15 @@
       </c>
       <c r="K9" s="36"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11">
       <c r="A10" s="6">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>224</v>
       </c>
       <c r="C10" s="35">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>287</v>
@@ -4262,15 +4460,15 @@
       </c>
       <c r="K10" s="36"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11">
       <c r="A11" s="6">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>240</v>
       </c>
       <c r="C11" s="35">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>282</v>
@@ -4293,15 +4491,15 @@
       </c>
       <c r="K11" s="36"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11">
       <c r="A12" s="6">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>232</v>
       </c>
       <c r="C12" s="35">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>282</v>
@@ -4324,15 +4522,15 @@
       </c>
       <c r="K12" s="36"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11">
       <c r="A13" s="6">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>199</v>
       </c>
       <c r="C13" s="37">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>296</v>
@@ -4355,15 +4553,15 @@
       </c>
       <c r="K13" s="36"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11">
       <c r="A14" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="35">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>287</v>
@@ -4386,15 +4584,15 @@
       </c>
       <c r="K14" s="36"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11">
       <c r="A15" s="6">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="35">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>287</v>
@@ -4417,15 +4615,15 @@
       </c>
       <c r="K15" s="36"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11">
       <c r="A16" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="35">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>287</v>
@@ -4448,15 +4646,15 @@
       </c>
       <c r="K16" s="36"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11">
       <c r="A17" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="35">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>287</v>
@@ -4479,15 +4677,15 @@
       </c>
       <c r="K17" s="36"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11">
       <c r="A18" s="40">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>247</v>
       </c>
       <c r="C18" s="35">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>287</v>
@@ -4510,15 +4708,15 @@
       </c>
       <c r="K18" s="36"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11">
       <c r="A19" s="6">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>184</v>
       </c>
       <c r="C19" s="35">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>310</v>
@@ -4541,15 +4739,15 @@
       </c>
       <c r="K19" s="36"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11">
       <c r="A20" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="35">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>313</v>
@@ -4572,15 +4770,15 @@
       </c>
       <c r="K20" s="36"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11">
       <c r="A21" s="6">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="35">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>314</v>
@@ -4603,15 +4801,15 @@
       </c>
       <c r="K21" s="36"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11">
       <c r="A22" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>129</v>
       </c>
       <c r="C22" s="35">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D22" s="35" t="s">
         <v>317</v>
@@ -4634,15 +4832,15 @@
       </c>
       <c r="K22" s="36"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11">
       <c r="A23" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C23" s="35">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="D23" s="35" t="s">
         <v>287</v>
@@ -4665,15 +4863,15 @@
       </c>
       <c r="K23" s="36"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11">
       <c r="A24" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="35">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D24" s="35" t="s">
         <v>287</v>
@@ -4696,15 +4894,15 @@
       </c>
       <c r="K24" s="36"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11">
       <c r="A25" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="35">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>287</v>
@@ -4727,15 +4925,15 @@
       </c>
       <c r="K25" s="36"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11">
       <c r="A26" s="6">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>151</v>
       </c>
       <c r="C26" s="35">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>322</v>
@@ -4758,15 +4956,15 @@
       </c>
       <c r="K26" s="36"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11">
       <c r="A27" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>259</v>
       </c>
       <c r="C27" s="35">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="D27" s="35" t="s">
         <v>324</v>
@@ -4789,15 +4987,15 @@
       </c>
       <c r="K27" s="36"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11">
       <c r="A28" s="6">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>215</v>
       </c>
       <c r="C28" s="35">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="D28" s="35" t="s">
         <v>286</v>
@@ -4820,15 +5018,15 @@
       </c>
       <c r="K28" s="36"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11">
       <c r="A29" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="35">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="D29" s="35" t="s">
         <v>287</v>
@@ -4851,15 +5049,15 @@
       </c>
       <c r="K29" s="36"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11">
       <c r="A30" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>176</v>
       </c>
       <c r="C30" s="35">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="D30" s="35" t="s">
         <v>326</v>
@@ -4882,15 +5080,15 @@
       </c>
       <c r="K30" s="36"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11">
       <c r="A31" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C31" s="35">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="D31" s="35" t="s">
         <v>286</v>
@@ -4915,26 +5113,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{666FFB2E-1B4F-4D70-AC16-41A68FE299C3}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$K$31"/>
-    </customSheetView>
     <customSheetView guid="{899D0F4F-443C-486C-9FF7-2E2C12758A06}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$K$31">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:K31">
         <filterColumn colId="7">
           <filters>
+            <filter val="Intel Core  i3"/>
+            <filter val="intel core 2 duo"/>
             <filter val="Intel Core i3"/>
-            <filter val="Intel Core  i3"/>
             <filter val="INTEL Pentium"/>
-            <filter val="intel core 2 duo"/>
-            <filter val="intel core i3"/>
-            <filter val="Intel Core 2 Duo"/>
-            <filter val="Intel Pentium"/>
           </filters>
         </filterColumn>
       </autoFilter>
     </customSheetView>
+    <customSheetView guid="{666FFB2E-1B4F-4D70-AC16-41A68FE299C3}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:K31"/>
+    </customSheetView>
   </customSheetViews>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>